--- a/biology/Neurosciences/Cartographie_statistique_paramétrique/Cartographie_statistique_paramétrique.xlsx
+++ b/biology/Neurosciences/Cartographie_statistique_paramétrique/Cartographie_statistique_paramétrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartographie_statistique_param%C3%A9trique</t>
+          <t>Cartographie_statistique_paramétrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cartographie statistique paramétrique (en anglais : statistical parametric mapping ou SPM) est une méthode d'analyse statistique employée en imagerie cérébrale.
 Le terme SPM est à éviter pour désigner la méthode générale car il fait référence au logiciel développé par le Wellcome Department of Imaging Neuroscience de l'University College de Londres pour effectuer ce genre d'analyses. Ce logiciel prépare les images (TEP, IRMf, TEMP, EEG ou MEG) pour des analyses statistiques de chaque voxel d'une image. Ce logiciel fait l'hypothèse qu'un voxel représenterait la même partie anatomique d'un même cerveau pour toutes les images analysées. Or c'est souvent faux car les images traitées ont souvent été obtenues à des moments différents et chez différentes personnes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartographie_statistique_param%C3%A9trique</t>
+          <t>Cartographie_statistique_paramétrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Pré-traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les étapes essentielles du pré-traitement sont :
 le réalignement : les images sont acquises à différents moments (série temporelle) et donc le sujet a bougé. Le réalignement permet d'estimer les mouvements et d'aligner les images comme si le sujet n'avait pas bougé ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartographie_statistique_param%C3%A9trique</t>
+          <t>Cartographie_statistique_paramétrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Analyse statistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les modèles statistiques paramétriques sont appliqués à chaque voxel, en utilisant le modèle général linéaire pour décrire la variabilité des données en termes d'effets expérimentaux (ceux qui nous intéresse), d'effets confondants (sans intérêt) et de variabilité résiduelle (inexpliquée par le modèle).
 On doit donc d'abord construire le modèle en entrant des régresseurs. Les régresseurs définissent les effets expérimentaux (par exemple A, l'apparition d'une stimulation visuelle à t = 22 s, t = 50 s et t = 120 s et pendant 20 s à chaque fois) et les effets confondants (par exemple B, le temps de réaction pour répondre à chaque stimulation).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cartographie_statistique_param%C3%A9trique</t>
+          <t>Cartographie_statistique_paramétrique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Représentations graphiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce logiciel permet de représenter les résultats statistiques dans des tableaux (les voxels qui montrent une différence significative entre les tâches sont affichés avec leur coordonnées stéréotaxiques et le nombre de voxels voisins dépassant le seuil de significativité) ou bien sous forme d'images où seuls les voxels significatifs sont représentés avec une valeur qui correspond à une probabilité. Ces images statistiques peuvent être superposées aux images anatomiques afin d'obtenir des cartes statistiques paramétriques.
 </t>
